--- a/exportprocess.xlsx
+++ b/exportprocess.xlsx
@@ -15,12 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Contenturl</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>http://localhost/test2storage/Assets</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>http://localhost/test2storage/Contents</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>http://localhost/test2storage/Subjects</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>http://localhost/test2storage/Trash</t>
   </si>
 </sst>
 </file>
@@ -359,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,6 +397,38 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
